--- a/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
+++ b/PCB/control_PWR_PCB/Project Outputs for control_PWR_PCB/BOM/Bill of Materials-control_PWR_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Ethernet_Power_Load_Controller\PCB\control_PWR_PCB\Project Outputs for control_PWR_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E33E2E-642B-4A14-A292-71ABFB877E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED576F1D-B51B-446D-BBC5-DFBEA7F96D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{7897B75F-728E-4D37-9442-928BD7506425}"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{B26B7A43-DCDF-464F-AE5C-2FB87E432337}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-control_PWR_P" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="135">
   <si>
     <t>Comment</t>
   </si>
@@ -158,16 +158,10 @@
     <t>0603 NC</t>
   </si>
   <si>
-    <t>R46, R48</t>
+    <t>R43, R44, R46, R48</t>
   </si>
   <si>
     <t>Resistor</t>
-  </si>
-  <si>
-    <t>0603 1,5k</t>
-  </si>
-  <si>
-    <t>R43, R44</t>
   </si>
   <si>
     <t>0603 75R</t>
@@ -826,11 +820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B1CCCE-8913-4C5C-88C7-C782E2B23D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8E3A59-28AC-4C05-B20A-00FACB08B19E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,7 +1070,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1093,7 +1087,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1110,7 +1104,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1127,10 +1121,10 @@
         <v>47</v>
       </c>
       <c r="E17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -1144,10 +1138,10 @@
         <v>49</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -1161,7 +1155,7 @@
         <v>51</v>
       </c>
       <c r="E19" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1178,7 +1172,7 @@
         <v>53</v>
       </c>
       <c r="E20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,7 +1189,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1229,7 +1223,7 @@
         <v>59</v>
       </c>
       <c r="E23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1246,29 +1240,29 @@
         <v>61</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E25" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>65</v>
@@ -1277,32 +1271,32 @@
         <v>42</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>68</v>
@@ -1311,10 +1305,10 @@
         <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1334,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>71</v>
       </c>
@@ -1348,10 +1342,10 @@
         <v>71</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
@@ -1359,44 +1353,44 @@
         <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -1404,29 +1398,29 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="E34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D35" s="3" t="s">
         <v>84</v>
       </c>
@@ -1434,194 +1428,194 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="E45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E46" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>119</v>
       </c>
@@ -1629,33 +1623,33 @@
         <v>120</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>124</v>
       </c>
@@ -1663,7 +1657,7 @@
         <v>125</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>124</v>
@@ -1672,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>126</v>
       </c>
@@ -1680,7 +1674,7 @@
         <v>127</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>126</v>
@@ -1689,38 +1683,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E52" s="4">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1731,29 +1725,12 @@
         <v>133</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="4">
         <v>2</v>
       </c>
     </row>
